--- a/paper/sup_tab4_clinvar_pathogenic_records.xlsx
+++ b/paper/sup_tab4_clinvar_pathogenic_records.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darkl\Dropbox\BIO267_group\Helen_folder\papers\angiogenesis\oup-authoring-template\revisions\first\sup_mat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elenarojano\Dropbox\BIO267_group\Helen_folder\papers\angiogenesis\oup-authoring-template\revisions\first\sup_mat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26370" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26376" windowHeight="8076"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -242,7 +242,7 @@
     <t>Clinical significance</t>
   </si>
   <si>
-    <t>Supp table 4: List of variants found in ClinVar when query for "angiogen*" keyword at 16th December 2021. Records were filtered by Clinical significance at least Likely pathogenic and variant length less or equal to 50 nt to ensure that only one gene is affected by the variant.</t>
+    <t>Supp table 4: List of variants found in ClinVar when query for "angiogen*" keyword on 16th December 2021. Records were filtered by Clinical significance at least Likely pathogenic and variant length less or equal to 50 nt to ensure that only one gene is affected by the variant.</t>
   </si>
 </sst>
 </file>
@@ -332,11 +332,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,59 +621,59 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="36" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -699,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="96" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -751,7 +751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="168" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -777,7 +777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
@@ -825,7 +825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -851,7 +851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>41</v>
       </c>
@@ -877,7 +877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -903,7 +903,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -929,7 +929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -955,7 +955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>53</v>
       </c>
@@ -981,7 +981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="346.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
